--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.61</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.13</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001266</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银招财灵活配置混合</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.32</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.12</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320020</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安策略精选股票</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>72.83</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81.50</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>83.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>470098</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>汇添富逆向投资混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>22.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>60.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>84.09</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>2</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2094,4 +2095,4044 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>190.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5047</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0382</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9599</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9392</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9263</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7462</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6607</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6135,4 +6136,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6144,7 +6145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6155,17 +6156,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6175,14 +6196,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.63</v>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6191,14 +6234,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.84</v>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>169.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6207,14 +6272,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.91</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6223,13 +6310,3715 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>169.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5875</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5384</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9983</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9890</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8557</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7804</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9917,7 +9918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9928,17 +9929,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9948,14 +9969,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.42</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9964,14 +10007,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>105</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.63</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -9980,14 +10045,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.84</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9996,14 +10083,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.91</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -10012,13 +10121,4075 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2486</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1999</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1952</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1620</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0703</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9810</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8492</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7541</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7516</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7500</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7496</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6306</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5471</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3719</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>105</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14072,7 +14073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14083,17 +14084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14103,14 +14124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>108</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.56</v>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -14119,14 +14162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>98</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.42</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14135,14 +14200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>105</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.63</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14151,14 +14238,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.84</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -14167,14 +14276,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.91</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -14183,13 +14314,2797 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4948</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2341</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9631</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9587</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9337</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9045</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8733</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8683</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>108</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>105</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>38.83</v>
+        <v>68.95999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>42.56</v>
+        <v>38.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>40.42</v>
+        <v>42.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>36.63</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n">
-        <v>5.84</v>
+        <v>36.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>12</v>
       </c>
       <c r="D8" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -600,6 +617,3784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>252.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>匯添富價值精選混合型證券投資基金 O</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3724</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1925</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8309</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3772</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3618</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2831</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2585</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2342</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2203</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0677</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0390</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8132</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8014</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7816</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7774</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6763</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5390</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011558</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011559</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>57.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3497,7 +7292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7651,7 +11446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11423,7 +15218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15463,7 +19258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16089,7 +19884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16601,7 +20396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002120-韵达股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>68.95999999999999</v>
+        <v>34.87</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>38.83</v>
+        <v>68.95999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>42.56</v>
+        <v>38.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
-        <v>40.42</v>
+        <v>42.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>36.63</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
-        <v>5.84</v>
+        <v>36.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -616,7 +633,2359 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7237</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013676</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013677</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011433</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011118</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011119</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010545</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加聚隆六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010546</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加聚隆六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011434</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4394,7 +6763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7292,7 +9661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11446,7 +13815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15218,7 +17587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19258,7 +21627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19884,7 +22253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20394,516 +22763,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8694</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5350</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2334</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1981</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1551</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1056</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>320020</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺安策略精选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>78.29</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>